--- a/src/main/resources/spreadsheets/JCP_template.xlsx
+++ b/src/main/resources/spreadsheets/JCP_template.xlsx
@@ -1977,7 +1977,7 @@
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/spreadsheets/JCP_template.xlsx
+++ b/src/main/resources/spreadsheets/JCP_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
     <t xml:space="preserve">Export date</t>
   </si>
@@ -194,60 +194,6 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">MX1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRADFORD POLICE STATION (TRAFALGAR HOUSE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEEDS MAGISTRATES COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXX9876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DERBY POLICE CUSTODY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD-5555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long journey, ovenight stay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX-5786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP PENTONVILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP HOLME HOUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP NOTTINGHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need reason codes from supplier; make sure it's a selectable list - same for both suppliers.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -292,51 +238,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">HMP BIRMINGHAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANCELLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanical or other vehicle failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WESTMINISTER MAGISTRATE COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP WORMWOOD SCRUBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WESTMINSTER MAGISTRATE COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP WANDSWORTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ineffective route planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unavailable resource, vehicle or staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need reason codes from supplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do they filter by? What fields?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you want DDMMYYYY + timestamp?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -359,30 +260,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NOTTINGHAM MAGISTRATE COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16/01/0202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTTINGHAM POLICE CUSTODY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GX-1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late sitting court </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEEDS PRISON</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date range</t>
   </si>
   <si>
@@ -408,54 +285,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">HMP PENTONVILLE (supplier not at fault)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP DONCASTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP PENTONVILLE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP LEEDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX-F238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unachievable redirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP PENTONVILLE (supplier at fault)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP PENTONVILLE (Supplier not at fault + return to original destination)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP LEEDS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP LINCOLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEEDS POLICE CUSTODY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR-0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMP PENTONVILLE (Supplier at fault + return to original destination)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev notes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes against the move and the journey (,) comma seperated</t>
-  </si>
-  <si>
     <t xml:space="preserve">This needs to be either password protected or interstitial confidentiality agreement per Commercials req</t>
   </si>
 </sst>
@@ -463,16 +292,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
     <numFmt numFmtId="168" formatCode="\£#,##0.00"/>
     <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="170" formatCode="HH:MM"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -553,14 +381,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="9"/>
       <name val="Cambria"/>
@@ -568,7 +388,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,25 +428,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF800000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -664,7 +478,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,91 +619,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -906,13 +648,13 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -923,7 +665,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFEFEFEF"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -937,7 +679,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -1976,8 +1718,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3359,10 +3101,10 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.57"/>
@@ -3374,13 +3116,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>43862</v>
-      </c>
+      <c r="B1" s="29"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3394,12 +3134,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3414,9 +3151,8 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3452,9 +3188,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3468,19 +3202,15 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>43831</v>
-      </c>
+      <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="n">
-        <v>43861</v>
-      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3508,7 +3238,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
@@ -3526,7 +3256,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -3582,584 +3312,11 @@
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G10" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H10" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I10" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G11" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H11" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I11" s="41" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G12" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H12" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I12" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G13" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H13" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I13" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G14" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H14" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I14" s="41" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="43" t="n">
-        <v>45</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G15" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H15" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I15" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G16" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H16" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I16" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G17" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H17" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I17" s="41" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G18" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H18" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I18" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G19" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H19" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I19" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="37"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G20" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H20" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I20" s="41" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G21" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H21" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I21" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G22" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H22" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I22" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="37"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G23" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H23" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I23" s="41" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G24" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H24" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I24" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N27" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4179,7 +3336,7 @@
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4196,13 +3353,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>43862</v>
-      </c>
+      <c r="B1" s="29"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4232,12 +3387,9 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4268,9 +3420,8 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4334,13 +3485,11 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -4370,19 +3519,15 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>43831</v>
-      </c>
+      <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="n">
-        <v>43861</v>
-      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4444,7 +3589,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4517,10 +3662,10 @@
         <v>16</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O9" s="15"/>
-      <c r="P9" s="44"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -4536,951 +3681,24 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G10" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H10" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I10" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G11" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G12" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H12" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I12" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G13" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H13" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I13" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G14" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="43" t="n">
-        <v>45</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G15" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H15" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I15" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G16" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H16" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I16" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G17" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G18" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H18" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I18" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G19" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H19" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I19" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G20" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G21" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H21" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I21" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G22" s="36" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H22" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I22" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G23" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G24" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H24" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I24" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5500,7 +3718,7 @@
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5515,13 +3733,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>43862</v>
-      </c>
+      <c r="B1" s="29"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5533,7 +3749,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="39"/>
+      <c r="N1" s="36"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -5553,12 +3769,9 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5571,7 +3784,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="39"/>
+      <c r="N2" s="36"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -5591,9 +3804,8 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5605,7 +3817,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="39"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -5641,7 +3853,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="49"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -5665,9 +3877,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -5679,7 +3889,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="36"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -5699,19 +3909,15 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>43831</v>
-      </c>
+      <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="n">
-        <v>43861</v>
-      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5721,7 +3927,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="39"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -5755,7 +3961,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="39"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -5777,7 +3983,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -5791,7 +3997,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="49"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -5855,7 +4061,7 @@
         <v>48</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="45"/>
+      <c r="P9" s="38"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -5873,1021 +4079,24 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G10" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G11" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="43" t="n">
-        <v>20</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G12" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H12" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I12" s="41" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G13" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H13" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I13" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G14" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G15" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G16" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H16" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I16" s="41" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G17" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H17" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I17" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G18" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G19" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H19" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I19" s="41" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N19" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G20" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H20" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I20" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G21" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G22" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H22" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I22" s="41" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N22" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G23" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H23" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I23" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G24" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="36" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G25" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="43" t="n">
-        <v>20</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G26" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H26" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I26" s="41" t="n">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="43" t="n">
-        <v>33.58</v>
-      </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G27" s="41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="H27" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I27" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6906,8 +4115,8 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6928,13 +4137,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
-        <v>43862</v>
-      </c>
+      <c r="B1" s="29"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -6964,12 +4171,9 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -7000,9 +4204,8 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -7070,9 +4273,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -7102,19 +4303,15 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>43831</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="n">
-        <v>43861</v>
-      </c>
+      <c r="D6" s="29"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -7176,7 +4373,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7252,7 +4449,7 @@
         <v>48</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="45"/>
+      <c r="P9" s="38"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -7268,1091 +4465,26 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G10" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H10" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I10" s="36" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G11" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H11" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I11" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G12" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G13" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H13" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I13" s="41" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="43" t="n">
-        <v>60</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G14" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H14" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I14" s="36" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G15" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H15" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I15" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G16" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G17" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H17" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I17" s="41" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="43" t="n">
-        <v>60</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G18" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H18" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I18" s="36" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G19" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H19" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I19" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G20" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M20" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N20" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G21" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H21" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I21" s="41" t="n">
-        <v>0.697916666666667</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="43" t="n">
-        <v>60</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="40" t="n">
-        <v>43847</v>
-      </c>
-      <c r="G22" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H22" s="40" t="n">
-        <v>43847</v>
-      </c>
-      <c r="I22" s="41" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="35" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G23" s="36" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H23" s="35" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I23" s="36" t="n">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="G24" s="41" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="H24" s="40" t="n">
-        <v>43845</v>
-      </c>
-      <c r="I24" s="41" t="n">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="43" t="n">
-        <v>100</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G25" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="43" t="n">
-        <v>50</v>
-      </c>
-      <c r="N25" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="G26" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H26" s="40" t="n">
-        <v>43846</v>
-      </c>
-      <c r="I26" s="41" t="n">
-        <v>0.555555555555556</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="40" t="n">
-        <v>43847</v>
-      </c>
-      <c r="G27" s="41" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="H27" s="40" t="n">
-        <v>43847</v>
-      </c>
-      <c r="I27" s="41" t="n">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8382,8 +4514,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>111</v>
+      <c r="A1" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/spreadsheets/JCP_template.xlsx
+++ b/src/main/resources/spreadsheets/JCP_template.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonnycavell/p/calculate-people-move-prices/src/main/resources/spreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3CE9D3-CCCB-1547-A942-6076D589A345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29580" windowHeight="17140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Standard" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Long haul" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Redirections" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Lockouts" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Multi-type" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="JPC_Serco_300120_v8" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Standard" sheetId="2" r:id="rId2"/>
+    <sheet name="Long haul" sheetId="3" r:id="rId3"/>
+    <sheet name="Redirections" sheetId="4" r:id="rId4"/>
+    <sheet name="Lockouts" sheetId="5" r:id="rId5"/>
+    <sheet name="Multi-type" sheetId="6" r:id="rId6"/>
+    <sheet name="JPC_Serco_300120_v8" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -28,103 +33,103 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
-    <t xml:space="preserve">Export date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Export from previous day's events</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPC_Serco_300120_v8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need to agree name of file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate Journey Variable Payments (S2B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev Notes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All completed moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTPUT SUMMARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage</t>
+    <t>Export date</t>
+  </si>
+  <si>
+    <t>Export from previous day's events</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>JPC_Serco_300120_v8</t>
+  </si>
+  <si>
+    <t>Need to agree name of file</t>
+  </si>
+  <si>
+    <t>Calculate Journey Variable Payments (S2B)</t>
+  </si>
+  <si>
+    <t>Dev Notes:</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>SERCO</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>All completed moves</t>
+  </si>
+  <si>
+    <t>OUTPUT SUMMARY</t>
+  </si>
+  <si>
+    <t>Move type</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
   <si>
     <t xml:space="preserve"> Volume</t>
   </si>
   <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">includes single journeys, cross supplier and redirects before the move has started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard move without prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move not found in JPC</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Standard move</t>
+  </si>
+  <si>
+    <t>includes single journeys, cross supplier and redirects before the move has started</t>
+  </si>
+  <si>
+    <t>Standard move without prices</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>move not found in JPC</t>
   </si>
   <si>
     <t xml:space="preserve">Long haul </t>
   </si>
   <si>
-    <t xml:space="preserve">a completed move made up of 2 or more journeys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a redirection after the move has started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lockouts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refused admission to prison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-type moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">includes combinations of the above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Price</t>
+    <t>a completed move made up of 2 or more journeys</t>
+  </si>
+  <si>
+    <t>Redirections</t>
+  </si>
+  <si>
+    <t>a redirection after the move has started</t>
+  </si>
+  <si>
+    <t>Lockouts</t>
+  </si>
+  <si>
+    <t>refused admission to prison</t>
+  </si>
+  <si>
+    <t>Multi-type moves</t>
+  </si>
+  <si>
+    <t>includes combinations of the above</t>
+  </si>
+  <si>
+    <t>Total %</t>
+  </si>
+  <si>
+    <t>Total Volume</t>
+  </si>
+  <si>
+    <t>Total Price</t>
   </si>
   <si>
     <r>
@@ -132,66 +137,64 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">STANDARD MOVES </t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(includes single journeys, cross supplier and redirects before the move has started)</t>
+      <t>(includes single journeys, cross supplier and redirects before the move has started)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Move Ref ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pick up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pick up date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pick up time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop off date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop off time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehicle Reg No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMIS Prison ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONG HAUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vehicle ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor Billable?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
+    <t>Move Ref ID</t>
+  </si>
+  <si>
+    <t>Pick up</t>
+  </si>
+  <si>
+    <t>Location Type</t>
+  </si>
+  <si>
+    <t>Drop off</t>
+  </si>
+  <si>
+    <t>Pick up date</t>
+  </si>
+  <si>
+    <t>Pick up time</t>
+  </si>
+  <si>
+    <t>Drop off date</t>
+  </si>
+  <si>
+    <t>Drop off time</t>
+  </si>
+  <si>
+    <t>Vehicle Reg No</t>
+  </si>
+  <si>
+    <t>NOMIS Prison ID</t>
+  </si>
+  <si>
+    <t>LONG HAUL</t>
+  </si>
+  <si>
+    <t>Move ID</t>
+  </si>
+  <si>
+    <t>Vehicle ID</t>
+  </si>
+  <si>
+    <t>Contractor Billable?</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
   <si>
     <r>
@@ -199,30 +202,27 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">REDIRECTIONS </t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(a redirection after the move has started)</t>
+      <t>(a redirection after the move has started)</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Notes </t>
@@ -231,10 +231,9 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Reason codes or supplier notes)</t>
+      <t>(Reason codes or supplier notes)</t>
     </r>
   </si>
   <si>
@@ -243,24 +242,22 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">LOCKOUTS </t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="9"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(refused admission to prison)</t>
+      <t>(refused admission to prison)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Date range</t>
+    <t>Date range</t>
   </si>
   <si>
     <r>
@@ -268,123 +265,92 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MULTI-TYPE MOVES</t>
+      <t>MULTI-TYPE MOVES</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (includes combinations of move types)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This needs to be either password protected or interstitial confidentiality agreement per Commercials req</t>
+    <t>This needs to be either password protected or interstitial confidentiality agreement per Commercials req</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="\£#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\£#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="9"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -445,7 +411,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -453,197 +419,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -702,36 +562,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.43"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="2">
         <v>43862</v>
       </c>
       <c r="C1" s="3"/>
@@ -761,7 +927,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -794,7 +960,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="14">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -821,7 +987,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="14">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -852,7 +1018,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="14">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,17 +1049,17 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="14">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="9">
         <v>43831</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>43861</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -920,7 +1086,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -948,7 +1114,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="14">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -978,7 +1144,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="14">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
@@ -1014,17 +1180,17 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="14">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="16">
         <v>0.9</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="17">
         <v>9000</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="18">
         <v>90000</v>
       </c>
       <c r="E10" s="3"/>
@@ -1050,7 +1216,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="14">
       <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +1246,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="14">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="20"/>
@@ -1108,14 +1274,14 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="14">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="16" t="n">
+      <c r="B13" s="16">
         <v>0.05</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="17">
         <v>500</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -1144,7 +1310,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="14">
       <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
@@ -1174,7 +1340,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="14">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1202,14 +1368,14 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="14">
       <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="24" t="n">
+      <c r="B16" s="24">
         <v>0.01</v>
       </c>
-      <c r="C16" s="15" t="n">
+      <c r="C16" s="15">
         <v>100</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -1238,7 +1404,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="14">
       <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
@@ -1265,7 +1431,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="14">
       <c r="A18" s="19"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1293,14 +1459,14 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="14">
       <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="16">
         <v>0.01</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="25">
         <v>100</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -1329,7 +1495,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="14">
       <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1525,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="14">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1387,14 +1553,14 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="14">
       <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="16">
         <v>0.01</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="25">
         <v>100</v>
       </c>
       <c r="D22" s="22" t="s">
@@ -1423,7 +1589,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="14">
       <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
@@ -1453,7 +1619,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="14">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1481,14 +1647,14 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="14">
       <c r="A25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="16">
         <v>0.02</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="25">
         <v>200</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -1517,7 +1683,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="14">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -1547,7 +1713,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="14">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1575,7 +1741,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="14">
       <c r="A28" s="8"/>
       <c r="B28" s="26" t="s">
         <v>30</v>
@@ -1609,12 +1775,12 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="14">
       <c r="A29" s="3"/>
-      <c r="B29" s="27" t="n">
+      <c r="B29" s="27">
         <v>100</v>
       </c>
-      <c r="C29" s="17" t="n">
+      <c r="C29" s="17">
         <v>10000</v>
       </c>
       <c r="D29" s="22" t="s">
@@ -1643,7 +1809,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="14">
       <c r="A30" s="3"/>
       <c r="B30" s="24"/>
       <c r="C30" s="3"/>
@@ -1671,7 +1837,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="14">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1699,44 +1865,36 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="28"/>
     </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="1022" width="14.5" customWidth="1"/>
+    <col min="1023" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:30" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1928,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:30" ht="14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1803,7 +1961,7 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:30" ht="14">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1834,7 +1992,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:30" ht="14">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +2026,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:30" ht="14">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +2060,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:30" ht="14">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1938,7 +2096,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:30" ht="14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1970,7 +2128,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:30" ht="14">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -2004,7 +2162,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:30" ht="12.75" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
@@ -2060,1063 +2218,73 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" ht="12.75" customHeight="1"/>
+    <row r="1048541" ht="12.75" customHeight="1"/>
+    <row r="1048542" ht="12.75" customHeight="1"/>
+    <row r="1048543" ht="12.75" customHeight="1"/>
+    <row r="1048544" ht="12.75" customHeight="1"/>
+    <row r="1048545" ht="12.75" customHeight="1"/>
+    <row r="1048546" ht="12.75" customHeight="1"/>
+    <row r="1048547" ht="12.75" customHeight="1"/>
+    <row r="1048548" ht="12.75" customHeight="1"/>
+    <row r="1048549" ht="12.75" customHeight="1"/>
+    <row r="1048550" ht="12.75" customHeight="1"/>
+    <row r="1048551" ht="12.75" customHeight="1"/>
+    <row r="1048552" ht="12.75" customHeight="1"/>
+    <row r="1048553" ht="12.75" customHeight="1"/>
+    <row r="1048554" ht="12.75" customHeight="1"/>
+    <row r="1048555" ht="12.75" customHeight="1"/>
+    <row r="1048556" ht="12.75" customHeight="1"/>
+    <row r="1048557" ht="12.75" customHeight="1"/>
+    <row r="1048558" ht="12.75" customHeight="1"/>
+    <row r="1048559" ht="12.75" customHeight="1"/>
+    <row r="1048560" ht="12.75" customHeight="1"/>
+    <row r="1048561" ht="12.75" customHeight="1"/>
+    <row r="1048562" ht="12.75" customHeight="1"/>
+    <row r="1048563" ht="12.75" customHeight="1"/>
+    <row r="1048564" ht="12.75" customHeight="1"/>
+    <row r="1048565" ht="12.75" customHeight="1"/>
+    <row r="1048566" ht="12.75" customHeight="1"/>
+    <row r="1048567" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1"/>
+    <row r="1048569" ht="12.75" customHeight="1"/>
+    <row r="1048570" ht="12.75" customHeight="1"/>
+    <row r="1048571" ht="12.75" customHeight="1"/>
+    <row r="1048572" ht="12.75" customHeight="1"/>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" customWidth="1"/>
+    <col min="15" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +2302,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3151,7 +2319,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="14">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3166,7 +2334,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="14">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3184,7 +2352,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="14">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3202,7 +2370,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="14">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3222,7 +2390,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3238,7 +2406,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="14">
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
@@ -3256,7 +2424,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="30">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -3291,10 +2459,10 @@
         <v>43</v>
       </c>
       <c r="L9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>16</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>48</v>
@@ -3312,48 +2480,39 @@
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" ht="15.75" customHeight="1"/>
+    <row r="1048562" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" customWidth="1"/>
+    <col min="14" max="14" width="32.5" customWidth="1"/>
+    <col min="15" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:30" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +2546,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:30" ht="14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3420,7 +2579,7 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:30" ht="14">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3451,7 +2610,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:30" ht="14">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3485,7 +2644,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:30" ht="14">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +2678,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:30" ht="14">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3555,7 +2714,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:30" ht="14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3587,7 +2746,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:30" ht="14">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -3621,7 +2780,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:30" ht="45">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -3656,10 +2815,10 @@
         <v>43</v>
       </c>
       <c r="L9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>16</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>50</v>
@@ -3681,59 +2840,48 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" ht="12.75" customHeight="1"/>
+    <row r="1048563" ht="12.75" customHeight="1"/>
+    <row r="1048564" ht="12.75" customHeight="1"/>
+    <row r="1048565" ht="12.75" customHeight="1"/>
+    <row r="1048566" ht="12.75" customHeight="1"/>
+    <row r="1048567" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1"/>
+    <row r="1048569" ht="12.75" customHeight="1"/>
+    <row r="1048570" ht="12.75" customHeight="1"/>
+    <row r="1048571" ht="12.75" customHeight="1"/>
+    <row r="1048572" ht="12.75" customHeight="1"/>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="31.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" customWidth="1"/>
+    <col min="15" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:32" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3769,7 +2917,7 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:32" ht="14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3804,7 +2952,7 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:32" ht="14">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3837,7 +2985,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:32" ht="14">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3873,7 +3021,7 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:32" ht="14">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3909,7 +3057,7 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:32" ht="14">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3947,7 +3095,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:32" ht="14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3981,7 +3129,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:32" ht="14">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
@@ -4017,7 +3165,7 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:32" ht="45">
       <c r="A9" s="30" t="s">
         <v>34</v>
       </c>
@@ -4079,65 +3227,57 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" ht="12.75" customHeight="1"/>
+    <row r="1048560" ht="12.75" customHeight="1"/>
+    <row r="1048561" ht="12.75" customHeight="1"/>
+    <row r="1048562" ht="12.75" customHeight="1"/>
+    <row r="1048563" ht="12.75" customHeight="1"/>
+    <row r="1048564" ht="12.75" customHeight="1"/>
+    <row r="1048565" ht="12.75" customHeight="1"/>
+    <row r="1048566" ht="12.75" customHeight="1"/>
+    <row r="1048567" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1"/>
+    <row r="1048569" ht="12.75" customHeight="1"/>
+    <row r="1048570" ht="12.75" customHeight="1"/>
+    <row r="1048571" ht="12.75" customHeight="1"/>
+    <row r="1048572" ht="12.75" customHeight="1"/>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.43"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:30" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4171,7 +3311,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:30" ht="14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4204,7 +3344,7 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:30" ht="14">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4235,7 +3375,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:30" ht="14">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -4269,7 +3409,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:30" ht="14">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4303,7 +3443,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:30" ht="14">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -4339,7 +3479,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:30" ht="14">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4371,7 +3511,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:30" ht="14">
       <c r="A8" s="8" t="s">
         <v>53</v>
       </c>
@@ -4405,7 +3545,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:30" ht="30">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -4465,66 +3605,49 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" ht="12.75" customHeight="1"/>
+    <row r="1048560" ht="12.75" customHeight="1"/>
+    <row r="1048561" ht="12.75" customHeight="1"/>
+    <row r="1048562" ht="12.75" customHeight="1"/>
+    <row r="1048563" ht="12.75" customHeight="1"/>
+    <row r="1048564" ht="12.75" customHeight="1"/>
+    <row r="1048565" ht="12.75" customHeight="1"/>
+    <row r="1048566" ht="12.75" customHeight="1"/>
+    <row r="1048567" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1"/>
+    <row r="1048569" ht="12.75" customHeight="1"/>
+    <row r="1048570" ht="12.75" customHeight="1"/>
+    <row r="1048571" ht="12.75" customHeight="1"/>
+    <row r="1048572" ht="12.75" customHeight="1"/>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="45">
       <c r="A1" s="36" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/main/resources/spreadsheets/JCP_template.xlsx
+++ b/src/main/resources/spreadsheets/JCP_template.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonnycavell/p/calculate-people-move-prices/src/main/resources/spreadsheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3CE9D3-CCCB-1547-A942-6076D589A345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29580" windowHeight="17140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Standard" sheetId="2" r:id="rId2"/>
-    <sheet name="Long haul" sheetId="3" r:id="rId3"/>
-    <sheet name="Redirections" sheetId="4" r:id="rId4"/>
-    <sheet name="Lockouts" sheetId="5" r:id="rId5"/>
-    <sheet name="Multi-type" sheetId="6" r:id="rId6"/>
-    <sheet name="JPC_Serco_300120_v8" sheetId="7" r:id="rId7"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Standard" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Long haul" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Redirections" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Lockouts" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Multi-type" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="JPC_Serco_300120_v8" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="JPC Price book" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -33,103 +29,103 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="55">
   <si>
-    <t>Export date</t>
-  </si>
-  <si>
-    <t>Export from previous day's events</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>JPC_Serco_300120_v8</t>
-  </si>
-  <si>
-    <t>Need to agree name of file</t>
-  </si>
-  <si>
-    <t>Calculate Journey Variable Payments (S2B)</t>
-  </si>
-  <si>
-    <t>Dev Notes:</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>SERCO</t>
-  </si>
-  <si>
-    <t>Date Range</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>All completed moves</t>
-  </si>
-  <si>
-    <t>OUTPUT SUMMARY</t>
-  </si>
-  <si>
-    <t>Move type</t>
-  </si>
-  <si>
-    <t>Percentage</t>
+    <t xml:space="preserve">Export date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Export from previous day's events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPC_Serco_300120_v8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to agree name of file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate Journey Variable Payments (S2B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dev Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All completed moves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTPUT SUMMARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage</t>
   </si>
   <si>
     <t xml:space="preserve"> Volume</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Standard move</t>
-  </si>
-  <si>
-    <t>includes single journeys, cross supplier and redirects before the move has started</t>
-  </si>
-  <si>
-    <t>Standard move without prices</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>move not found in JPC</t>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes single journeys, cross supplier and redirects before the move has started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard move without prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move not found in JPC</t>
   </si>
   <si>
     <t xml:space="preserve">Long haul </t>
   </si>
   <si>
-    <t>a completed move made up of 2 or more journeys</t>
-  </si>
-  <si>
-    <t>Redirections</t>
-  </si>
-  <si>
-    <t>a redirection after the move has started</t>
-  </si>
-  <si>
-    <t>Lockouts</t>
-  </si>
-  <si>
-    <t>refused admission to prison</t>
-  </si>
-  <si>
-    <t>Multi-type moves</t>
-  </si>
-  <si>
-    <t>includes combinations of the above</t>
-  </si>
-  <si>
-    <t>Total %</t>
-  </si>
-  <si>
-    <t>Total Volume</t>
-  </si>
-  <si>
-    <t>Total Price</t>
+    <t xml:space="preserve">a completed move made up of 2 or more journeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a redirection after the move has started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lockouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refused admission to prison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-type moves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes combinations of the above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Price</t>
   </si>
   <si>
     <r>
@@ -137,64 +133,66 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">STANDARD MOVES </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="true"/>
         <sz val="11"/>
         <rFont val="Cambria"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>(includes single journeys, cross supplier and redirects before the move has started)</t>
+      <t xml:space="preserve">(includes single journeys, cross supplier and redirects before the move has started)</t>
     </r>
   </si>
   <si>
-    <t>Move Ref ID</t>
-  </si>
-  <si>
-    <t>Pick up</t>
-  </si>
-  <si>
-    <t>Location Type</t>
-  </si>
-  <si>
-    <t>Drop off</t>
-  </si>
-  <si>
-    <t>Pick up date</t>
-  </si>
-  <si>
-    <t>Pick up time</t>
-  </si>
-  <si>
-    <t>Drop off date</t>
-  </si>
-  <si>
-    <t>Drop off time</t>
-  </si>
-  <si>
-    <t>Vehicle Reg No</t>
-  </si>
-  <si>
-    <t>NOMIS Prison ID</t>
-  </si>
-  <si>
-    <t>LONG HAUL</t>
-  </si>
-  <si>
-    <t>Move ID</t>
-  </si>
-  <si>
-    <t>Vehicle ID</t>
-  </si>
-  <si>
-    <t>Contractor Billable?</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t xml:space="preserve">Move Ref ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick up time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop off date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop off time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Reg No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMIS Prison ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONG HAUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor Billable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
   </si>
   <si>
     <r>
@@ -202,27 +200,30 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">REDIRECTIONS </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="true"/>
         <sz val="11"/>
         <rFont val="Cambria"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>(a redirection after the move has started)</t>
+      <t xml:space="preserve">(a redirection after the move has started)</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Notes </t>
@@ -231,9 +232,10 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Cambria"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>(Reason codes or supplier notes)</t>
+      <t xml:space="preserve">(Reason codes or supplier notes)</t>
     </r>
   </si>
   <si>
@@ -242,22 +244,24 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">LOCKOUTS </t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="true"/>
         <sz val="9"/>
         <rFont val="Cambria"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>(refused admission to prison)</t>
+      <t xml:space="preserve">(refused admission to prison)</t>
     </r>
   </si>
   <si>
-    <t>Date range</t>
+    <t xml:space="preserve">Date range</t>
   </si>
   <si>
     <r>
@@ -265,92 +269,123 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>MULTI-TYPE MOVES</t>
+      <t xml:space="preserve">MULTI-TYPE MOVES</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <i val="true"/>
         <sz val="11"/>
         <rFont val="Cambria"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (includes combinations of move types)</t>
     </r>
   </si>
   <si>
-    <t>This needs to be either password protected or interstitial confidentiality agreement per Commercials req</t>
+    <t xml:space="preserve">This needs to be either password protected or interstitial confidentiality agreement per Commercials req</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\£#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="\£#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="9"/>
       <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -411,7 +446,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -419,91 +454,197 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -562,342 +703,36 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2" t="n">
         <v>43862</v>
       </c>
       <c r="C1" s="3"/>
@@ -927,7 +762,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="15">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -960,7 +795,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="14">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -987,7 +822,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +853,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1049,17 +884,17 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="9" t="n">
         <v>43831</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="9" t="n">
         <v>43861</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1086,7 +921,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1114,7 +949,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1144,7 +979,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
@@ -1180,17 +1015,17 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26" ht="14">
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="16" t="n">
         <v>0.9</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="17" t="n">
         <v>9000</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="18" t="n">
         <v>90000</v>
       </c>
       <c r="E10" s="3"/>
@@ -1216,7 +1051,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="14">
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1081,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="14">
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="20"/>
@@ -1274,14 +1109,14 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="14">
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="16" t="n">
         <v>0.05</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="17" t="n">
         <v>500</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -1310,7 +1145,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="14">
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
         <v>21</v>
       </c>
@@ -1340,7 +1175,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="14">
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1368,14 +1203,14 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="14">
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="24" t="n">
         <v>0.01</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="15" t="n">
         <v>100</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -1404,7 +1239,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="14">
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
         <v>23</v>
       </c>
@@ -1431,7 +1266,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="14">
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1459,14 +1294,14 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="14">
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="16" t="n">
         <v>0.01</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="25" t="n">
         <v>100</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -1495,7 +1330,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="14">
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
@@ -1525,7 +1360,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="14">
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1553,14 +1388,14 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="14">
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="16" t="n">
         <v>0.01</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <v>100</v>
       </c>
       <c r="D22" s="22" t="s">
@@ -1589,7 +1424,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="14">
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
@@ -1619,7 +1454,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="14">
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1647,14 +1482,14 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="14">
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="16" t="n">
         <v>0.02</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="25" t="n">
         <v>200</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -1683,7 +1518,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="14">
+    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1548,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="14">
+    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1741,7 +1576,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="14">
+    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="26" t="s">
         <v>30</v>
@@ -1775,12 +1610,12 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="14">
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
-      <c r="B29" s="27">
+      <c r="B29" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="17" t="n">
         <v>10000</v>
       </c>
       <c r="D29" s="22" t="s">
@@ -1809,7 +1644,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="14">
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="24"/>
       <c r="C30" s="3"/>
@@ -1837,7 +1672,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="14">
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1865,36 +1700,44 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="28"/>
     </row>
-    <row r="1048576" ht="15.75" customHeight="1"/>
+    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="1022" width="14.5" customWidth="1"/>
-    <col min="1023" max="1025" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1771,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30" ht="14">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1804,7 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:30" ht="14">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1992,7 +1835,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:30" ht="14">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +1869,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" ht="14">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +1903,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:30" ht="14">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2096,7 +1939,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="14">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2128,7 +1971,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="14">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -2162,7 +2005,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="12.75" customHeight="1">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
@@ -2218,73 +2061,81 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="1048540" ht="12.75" customHeight="1"/>
-    <row r="1048541" ht="12.75" customHeight="1"/>
-    <row r="1048542" ht="12.75" customHeight="1"/>
-    <row r="1048543" ht="12.75" customHeight="1"/>
-    <row r="1048544" ht="12.75" customHeight="1"/>
-    <row r="1048545" ht="12.75" customHeight="1"/>
-    <row r="1048546" ht="12.75" customHeight="1"/>
-    <row r="1048547" ht="12.75" customHeight="1"/>
-    <row r="1048548" ht="12.75" customHeight="1"/>
-    <row r="1048549" ht="12.75" customHeight="1"/>
-    <row r="1048550" ht="12.75" customHeight="1"/>
-    <row r="1048551" ht="12.75" customHeight="1"/>
-    <row r="1048552" ht="12.75" customHeight="1"/>
-    <row r="1048553" ht="12.75" customHeight="1"/>
-    <row r="1048554" ht="12.75" customHeight="1"/>
-    <row r="1048555" ht="12.75" customHeight="1"/>
-    <row r="1048556" ht="12.75" customHeight="1"/>
-    <row r="1048557" ht="12.75" customHeight="1"/>
-    <row r="1048558" ht="12.75" customHeight="1"/>
-    <row r="1048559" ht="12.75" customHeight="1"/>
-    <row r="1048560" ht="12.75" customHeight="1"/>
-    <row r="1048561" ht="12.75" customHeight="1"/>
-    <row r="1048562" ht="12.75" customHeight="1"/>
-    <row r="1048563" ht="12.75" customHeight="1"/>
-    <row r="1048564" ht="12.75" customHeight="1"/>
-    <row r="1048565" ht="12.75" customHeight="1"/>
-    <row r="1048566" ht="12.75" customHeight="1"/>
-    <row r="1048567" ht="12.75" customHeight="1"/>
-    <row r="1048568" ht="12.75" customHeight="1"/>
-    <row r="1048569" ht="12.75" customHeight="1"/>
-    <row r="1048570" ht="12.75" customHeight="1"/>
-    <row r="1048571" ht="12.75" customHeight="1"/>
-    <row r="1048572" ht="12.75" customHeight="1"/>
-    <row r="1048573" ht="12.75" customHeight="1"/>
-    <row r="1048574" ht="12.75" customHeight="1"/>
-    <row r="1048575" ht="12.75" customHeight="1"/>
-    <row r="1048576" ht="12.75" customHeight="1"/>
+    <row r="1048540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="48.5" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="24.83203125" customWidth="1"/>
-    <col min="15" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2153,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="14">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2319,7 +2170,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="14">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2334,7 +2185,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2352,7 +2203,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2370,7 +2221,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2390,7 +2241,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2406,7 +2257,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
@@ -2424,7 +2275,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="30">
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -2480,39 +2331,47 @@
       <c r="Y9" s="34"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="1048561" ht="15.75" customHeight="1"/>
-    <row r="1048562" ht="12.75" customHeight="1"/>
-    <row r="1048576" ht="12.75" customHeight="1"/>
+    <row r="1048561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" customWidth="1"/>
-    <col min="14" max="14" width="32.5" customWidth="1"/>
-    <col min="15" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2546,7 +2405,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30" ht="14">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2579,7 +2438,7 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:30" ht="14">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2610,7 +2469,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:30" ht="14">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2503,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" ht="14">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2678,7 +2537,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:30" ht="14">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2714,7 +2573,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="14">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2746,7 +2605,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="14">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -2780,7 +2639,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="45">
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -2840,48 +2699,56 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
     </row>
-    <row r="1048562" ht="12.75" customHeight="1"/>
-    <row r="1048563" ht="12.75" customHeight="1"/>
-    <row r="1048564" ht="12.75" customHeight="1"/>
-    <row r="1048565" ht="12.75" customHeight="1"/>
-    <row r="1048566" ht="12.75" customHeight="1"/>
-    <row r="1048567" ht="12.75" customHeight="1"/>
-    <row r="1048568" ht="12.75" customHeight="1"/>
-    <row r="1048569" ht="12.75" customHeight="1"/>
-    <row r="1048570" ht="12.75" customHeight="1"/>
-    <row r="1048571" ht="12.75" customHeight="1"/>
-    <row r="1048572" ht="12.75" customHeight="1"/>
-    <row r="1048573" ht="12.75" customHeight="1"/>
-    <row r="1048574" ht="12.75" customHeight="1"/>
-    <row r="1048575" ht="12.75" customHeight="1"/>
-    <row r="1048576" ht="12.75" customHeight="1"/>
+    <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="49.5" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="31.33203125" customWidth="1"/>
-    <col min="15" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="6" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="31.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2917,7 +2784,7 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
     </row>
-    <row r="2" spans="1:32" ht="14">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2952,7 +2819,7 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
     </row>
-    <row r="3" spans="1:32" ht="14">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2985,7 +2852,7 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="14">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3021,7 +2888,7 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="14">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3057,7 +2924,7 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="14">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3095,7 +2962,7 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="14">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3129,7 +2996,7 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="14">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
@@ -3165,7 +3032,7 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" ht="45">
+    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
         <v>34</v>
       </c>
@@ -3227,57 +3094,65 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="1048559" ht="12.75" customHeight="1"/>
-    <row r="1048560" ht="12.75" customHeight="1"/>
-    <row r="1048561" ht="12.75" customHeight="1"/>
-    <row r="1048562" ht="12.75" customHeight="1"/>
-    <row r="1048563" ht="12.75" customHeight="1"/>
-    <row r="1048564" ht="12.75" customHeight="1"/>
-    <row r="1048565" ht="12.75" customHeight="1"/>
-    <row r="1048566" ht="12.75" customHeight="1"/>
-    <row r="1048567" ht="12.75" customHeight="1"/>
-    <row r="1048568" ht="12.75" customHeight="1"/>
-    <row r="1048569" ht="12.75" customHeight="1"/>
-    <row r="1048570" ht="12.75" customHeight="1"/>
-    <row r="1048571" ht="12.75" customHeight="1"/>
-    <row r="1048572" ht="12.75" customHeight="1"/>
-    <row r="1048573" ht="12.75" customHeight="1"/>
-    <row r="1048574" ht="12.75" customHeight="1"/>
-    <row r="1048575" ht="12.75" customHeight="1"/>
-    <row r="1048576" ht="12.75" customHeight="1"/>
+    <row r="1048559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3311,7 +3186,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
     </row>
-    <row r="2" spans="1:30" ht="14">
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3344,7 +3219,7 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:30" ht="14">
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3375,7 +3250,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:30" ht="14">
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +3284,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" ht="14">
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3443,7 +3318,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:30" ht="14">
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -3479,7 +3354,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="14">
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3511,7 +3386,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="14">
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>53</v>
       </c>
@@ -3545,7 +3420,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="30">
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
@@ -3605,49 +3480,90 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="1048559" ht="12.75" customHeight="1"/>
-    <row r="1048560" ht="12.75" customHeight="1"/>
-    <row r="1048561" ht="12.75" customHeight="1"/>
-    <row r="1048562" ht="12.75" customHeight="1"/>
-    <row r="1048563" ht="12.75" customHeight="1"/>
-    <row r="1048564" ht="12.75" customHeight="1"/>
-    <row r="1048565" ht="12.75" customHeight="1"/>
-    <row r="1048566" ht="12.75" customHeight="1"/>
-    <row r="1048567" ht="12.75" customHeight="1"/>
-    <row r="1048568" ht="12.75" customHeight="1"/>
-    <row r="1048569" ht="12.75" customHeight="1"/>
-    <row r="1048570" ht="12.75" customHeight="1"/>
-    <row r="1048571" ht="12.75" customHeight="1"/>
-    <row r="1048572" ht="12.75" customHeight="1"/>
-    <row r="1048573" ht="12.75" customHeight="1"/>
-    <row r="1048574" ht="12.75" customHeight="1"/>
-    <row r="1048575" ht="12.75" customHeight="1"/>
-    <row r="1048576" ht="12.75" customHeight="1"/>
+    <row r="1048559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45">
+    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>